--- a/reports/air_forecasting/date_quantity.xlsx
+++ b/reports/air_forecasting/date_quantity.xlsx
@@ -457,7 +457,7 @@
         <v>45412</v>
       </c>
       <c r="C2" t="n">
-        <v>666.7756656605176</v>
+        <v>666.4295548034107</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         <v>45443</v>
       </c>
       <c r="C3" t="n">
-        <v>618.6872710707568</v>
+        <v>618.4594543050745</v>
       </c>
     </row>
     <row r="4">
@@ -479,7 +479,7 @@
         <v>45473</v>
       </c>
       <c r="C4" t="n">
-        <v>624.3413113528649</v>
+        <v>623.9199046357128</v>
       </c>
     </row>
     <row r="5">
@@ -490,7 +490,7 @@
         <v>45504</v>
       </c>
       <c r="C5" t="n">
-        <v>601.3343279321801</v>
+        <v>600.9105778370198</v>
       </c>
     </row>
     <row r="6">
@@ -501,7 +501,7 @@
         <v>45535</v>
       </c>
       <c r="C6" t="n">
-        <v>686.8498559733789</v>
+        <v>686.4468266466348</v>
       </c>
     </row>
     <row r="7">
@@ -512,7 +512,7 @@
         <v>45565</v>
       </c>
       <c r="C7" t="n">
-        <v>688.8815295142763</v>
+        <v>688.5163617481383</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         <v>45596</v>
       </c>
       <c r="C8" t="n">
-        <v>680.9004899879442</v>
+        <v>680.4267365690206</v>
       </c>
     </row>
     <row r="9">
@@ -534,7 +534,7 @@
         <v>45626</v>
       </c>
       <c r="C9" t="n">
-        <v>648.4514999398723</v>
+        <v>647.9583113516965</v>
       </c>
     </row>
     <row r="10">
@@ -545,7 +545,7 @@
         <v>45657</v>
       </c>
       <c r="C10" t="n">
-        <v>641.492562463953</v>
+        <v>640.9629519976309</v>
       </c>
     </row>
     <row r="11">
@@ -556,7 +556,7 @@
         <v>45688</v>
       </c>
       <c r="C11" t="n">
-        <v>611.8537019565836</v>
+        <v>611.5196814303112</v>
       </c>
     </row>
     <row r="12">
@@ -567,7 +567,7 @@
         <v>45716</v>
       </c>
       <c r="C12" t="n">
-        <v>606.109941158636</v>
+        <v>605.4654595428582</v>
       </c>
     </row>
     <row r="13">
@@ -578,7 +578,7 @@
         <v>45747</v>
       </c>
       <c r="C13" t="n">
-        <v>702.7717804367595</v>
+        <v>701.6480370592208</v>
       </c>
     </row>
   </sheetData>
